--- a/biology/Botanique/Pandorea_jasminoides/Pandorea_jasminoides.xlsx
+++ b/biology/Botanique/Pandorea_jasminoides/Pandorea_jasminoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pandorea jasminoides, appelé communément Pandoréa jasmin[1], est une espèce du genre Pandorea, famille des Bignoniaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pandorea jasminoides, appelé communément Pandoréa jasmin, est une espèce du genre Pandorea, famille des Bignoniaceae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante peut atteindre 8 mètres de hauteur comme une liane ou un arbuste grimpant[2]. 
-Les feuilles majoritairement opposées, parfois aux trois tiers, sont pennées non jumelées et mesurent environ 12 à 17 centimètres de long. Elles se composent de quatre à sept folioles, qui mesurent 4,5 à 6 cm de long et 1,5 à 3 cm de large. Les folioles ont un bord lisse et reposent sur une tige longue de 2 à 4 millimètres ; la base des folioles est asymétrique. Il n'y a pas de stipule[3].
-Les inflorescences sont en thyrse et semblent parfois en grappe ; ils mesurent 6 à 12 cm de long. Les fleurs à cinq pétales hermaphrodites sont plus ou moins zygomorphes. Les cinq sépales verts sont fondus dans un calice de 5 à 7 mm de long. Les cinq pétales sont fusionnés en forme de trompette et mesurent 4 à 6 cm de long. Leur couleur peut être blanche ou rose avec une gorge rouge. La couronne est velue à l'intérieur et à l'extérieur. La couronne en forme de trompette est plus ou moins verticale et a un diamètre de 10 à 20 mm. Les lobes mesurent 2 à 3 cm de long. Les quatre étamines sont deux par deux. L'ovaire est suprême. Il y a un discus[3]. 
-Le fruit forme une capsule de 4 à 6 cm de long et d'un diamètre d'environ 1 à 2 cm. Les graines plates sont presque complètement entourées d'une aile membraneuse et ont un diamètre de 10 à 15 mm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante peut atteindre 8 mètres de hauteur comme une liane ou un arbuste grimpant. 
+Les feuilles majoritairement opposées, parfois aux trois tiers, sont pennées non jumelées et mesurent environ 12 à 17 centimètres de long. Elles se composent de quatre à sept folioles, qui mesurent 4,5 à 6 cm de long et 1,5 à 3 cm de large. Les folioles ont un bord lisse et reposent sur une tige longue de 2 à 4 millimètres ; la base des folioles est asymétrique. Il n'y a pas de stipule.
+Les inflorescences sont en thyrse et semblent parfois en grappe ; ils mesurent 6 à 12 cm de long. Les fleurs à cinq pétales hermaphrodites sont plus ou moins zygomorphes. Les cinq sépales verts sont fondus dans un calice de 5 à 7 mm de long. Les cinq pétales sont fusionnés en forme de trompette et mesurent 4 à 6 cm de long. Leur couleur peut être blanche ou rose avec une gorge rouge. La couronne est velue à l'intérieur et à l'extérieur. La couronne en forme de trompette est plus ou moins verticale et a un diamètre de 10 à 20 mm. Les lobes mesurent 2 à 3 cm de long. Les quatre étamines sont deux par deux. L'ovaire est suprême. Il y a un discus. 
+Le fruit forme une capsule de 4 à 6 cm de long et d'un diamètre d'environ 1 à 2 cm. Les graines plates sont presque complètement entourées d'une aile membraneuse et ont un diamètre de 10 à 15 mm.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pandorea jasminoides se trouve dans le sud-est de l'Australie, dans les forêts sclérophylles en zone tropicale humide du Queensland et au nord de la Nouvelle-Galles-du-Sud[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pandorea jasminoides se trouve dans le sud-est de l'Australie, dans les forêts sclérophylles en zone tropicale humide du Queensland et au nord de la Nouvelle-Galles-du-Sud.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Jardinage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pandorea jasminoides fait l'objet de cultivars[2]. Elle pousse dans des zones de rusticité USDA 9 à 10[2]. Elle ne tolère généralement pas les températures inférieures à 5 °C , surtout quand elle est jeune, et doit être cultivée dans une serre fraîche ou une véranda. Les plantes peuvent être placées à l'extérieur pendant les mois d'été[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pandorea jasminoides fait l'objet de cultivars. Elle pousse dans des zones de rusticité USDA 9 à 10. Elle ne tolère généralement pas les températures inférieures à 5 °C , surtout quand elle est jeune, et doit être cultivée dans une serre fraîche ou une véranda. Les plantes peuvent être placées à l'extérieur pendant les mois d'été.
 </t>
         </is>
       </c>
